--- a/data/trans_orig/P6520-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1982D0E8-6CFA-49D0-AA15-22A87EBF0A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DB6376-FC2E-4EF6-900D-190C950293F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14AF94ED-1BDC-42D1-974D-820AB5551BDF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1A8DF32-2D4F-4B70-A405-D3AABE999419}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="252">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>49,98%</t>
   </si>
   <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>44,32%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
   </si>
   <si>
     <t>47,46%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>30,69%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>8,73%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>10,6%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,7 +197,7 @@
     <t>47,1%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>42,65%</t>
   </si>
   <si>
     <t>51,27%</t>
@@ -206,100 +206,94 @@
     <t>56,44%</t>
   </si>
   <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
+    <t>11,46%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>9,03%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -308,178 +302,175 @@
     <t>48,96%</t>
   </si>
   <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
   </si>
   <si>
     <t>54,67%</t>
   </si>
   <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>7,26%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
+    <t>27,37%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>17,05%</t>
@@ -488,136 +479,133 @@
     <t>13,91%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>10,03%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
   </si>
   <si>
     <t>49,14%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -629,7 +617,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>79,81%</t>
+    <t>79,79%</t>
   </si>
   <si>
     <t>0%</t>
@@ -641,13 +629,13 @@
     <t>18,94%</t>
   </si>
   <si>
-    <t>54,97%</t>
+    <t>53,5%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>82,65%</t>
+    <t>71,01%</t>
   </si>
   <si>
     <t>48,13%</t>
@@ -659,16 +647,16 @@
     <t>31,38%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>86,73%</t>
+    <t>88,61%</t>
   </si>
   <si>
     <t>24,76%</t>
@@ -680,13 +668,13 @@
     <t>28,75%</t>
   </si>
   <si>
-    <t>73,98%</t>
+    <t>67,02%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>69,13%</t>
+    <t>60,35%</t>
   </si>
   <si>
     <t>27,11%</t>
@@ -695,91 +683,94 @@
     <t>20,93%</t>
   </si>
   <si>
-    <t>54,19%</t>
+    <t>56,42%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>54,57%</t>
   </si>
   <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
   </si>
   <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>23,32%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,63%</t>
+    <t>9,62%</t>
   </si>
   <si>
     <t>12,54%</t>
@@ -788,19 +779,16 @@
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>14,74%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1215,7 +1203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943864F6-4BB1-440C-93DF-63159B23538A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D031EE6-8E9F-44B4-888D-3AE6F022CADF}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1704,7 +1692,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -1713,13 +1701,13 @@
         <v>40108</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>111</v>
@@ -1728,13 +1716,13 @@
         <v>119409</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1737,13 @@
         <v>51882</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -1764,13 +1752,13 @@
         <v>47723</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -1779,13 +1767,13 @@
         <v>99606</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1829,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1853,13 +1841,13 @@
         <v>277014</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -1868,13 +1856,13 @@
         <v>164887</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -1883,13 +1871,13 @@
         <v>441901</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1892,13 @@
         <v>150492</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>64</v>
@@ -1919,13 +1907,13 @@
         <v>66753</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>210</v>
@@ -1934,13 +1922,13 @@
         <v>217245</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1943,13 @@
         <v>69389</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -1970,13 +1958,13 @@
         <v>38040</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -1985,13 +1973,13 @@
         <v>107429</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,13 +1994,13 @@
         <v>68846</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2021,13 +2009,13 @@
         <v>31923</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -2036,13 +2024,13 @@
         <v>100769</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,7 +2086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2110,13 +2098,13 @@
         <v>197084</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -2125,13 +2113,13 @@
         <v>99490</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -2140,13 +2128,13 @@
         <v>296574</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,13 +2149,13 @@
         <v>108154</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -2176,13 +2164,13 @@
         <v>34350</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -2191,13 +2179,13 @@
         <v>142504</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2200,13 @@
         <v>84350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2227,13 +2215,13 @@
         <v>18860</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>92</v>
@@ -2242,13 +2230,13 @@
         <v>103210</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2251,13 @@
         <v>46099</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2278,13 +2266,13 @@
         <v>17032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -2293,13 +2281,13 @@
         <v>63132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2343,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2367,13 +2355,13 @@
         <v>73903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -2382,13 +2370,13 @@
         <v>37956</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -2397,13 +2385,13 @@
         <v>111858</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2406,13 @@
         <v>33894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2433,13 +2421,13 @@
         <v>13433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -2448,13 +2436,13 @@
         <v>47327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,13 +2457,13 @@
         <v>33007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2484,13 +2472,13 @@
         <v>6887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -2499,13 +2487,13 @@
         <v>39894</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2508,13 @@
         <v>22564</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -2535,13 +2523,13 @@
         <v>6008</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -2550,13 +2538,13 @@
         <v>28573</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2600,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2624,13 +2612,13 @@
         <v>1640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2639,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2654,13 +2642,13 @@
         <v>1640</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2663,13 @@
         <v>975</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2690,13 +2678,13 @@
         <v>1743</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2705,13 +2693,13 @@
         <v>2717</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2714,13 @@
         <v>1592</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2741,13 +2729,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2756,13 +2744,13 @@
         <v>2489</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2765,13 @@
         <v>831</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2792,13 +2780,13 @@
         <v>982</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2807,13 +2795,13 @@
         <v>1812</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,13 +2869,13 @@
         <v>899124</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H34" s="7">
         <v>534</v>
@@ -2896,13 +2884,13 @@
         <v>557802</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>1402</v>
@@ -2911,13 +2899,13 @@
         <v>1456926</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2920,13 @@
         <v>509953</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H35" s="7">
         <v>205</v>
@@ -2947,13 +2935,13 @@
         <v>210615</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M35" s="7">
         <v>694</v>
@@ -2962,13 +2950,13 @@
         <v>720568</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +2971,13 @@
         <v>283055</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>119</v>
@@ -2998,13 +2986,13 @@
         <v>125077</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>386</v>
@@ -3013,13 +3001,13 @@
         <v>408132</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3022,13 @@
         <v>208939</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>121</v>
@@ -3049,13 +3037,13 @@
         <v>128739</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>117</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M37" s="7">
         <v>317</v>
@@ -3064,13 +3052,13 @@
         <v>337678</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3114,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04DB6376-FC2E-4EF6-900D-190C950293F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A83CCA10-CD2E-4E80-9C5E-5F022812EE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1A8DF32-2D4F-4B70-A405-D3AABE999419}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E748831D-0102-4E60-AF09-F11CCAFF5192}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>49,98%</t>
   </si>
   <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>44,32%</t>
@@ -86,16 +86,16 @@
     <t>35,81%</t>
   </si>
   <si>
-    <t>51,97%</t>
+    <t>52,51%</t>
   </si>
   <si>
     <t>47,46%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>30,69%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,166 +134,172 @@
     <t>8,73%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>7,98%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,03%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -302,493 +308,496 @@
     <t>48,96%</t>
   </si>
   <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>54,67%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>14,41%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>14,74%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>12,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1203,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D031EE6-8E9F-44B4-888D-3AE6F022CADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE092A35-900E-4156-BEF0-59A44A858E84}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1641,7 @@
         <v>152</v>
       </c>
       <c r="D10" s="7">
-        <v>162244</v>
+        <v>162243</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1692,7 +1701,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -1701,13 +1710,13 @@
         <v>40108</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>111</v>
@@ -1716,13 +1725,13 @@
         <v>119409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,13 +1746,13 @@
         <v>51882</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -1752,13 +1761,13 @@
         <v>47723</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -1767,13 +1776,13 @@
         <v>99606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,7 +1794,7 @@
         <v>525</v>
       </c>
       <c r="D13" s="7">
-        <v>554667</v>
+        <v>554666</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1829,7 +1838,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1841,13 +1850,13 @@
         <v>277014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>157</v>
@@ -1856,13 +1865,13 @@
         <v>164887</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -1871,13 +1880,13 @@
         <v>441901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,13 +1901,13 @@
         <v>150492</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>64</v>
@@ -1907,13 +1916,13 @@
         <v>66753</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>210</v>
@@ -1922,13 +1931,13 @@
         <v>217245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,13 +1952,13 @@
         <v>69389</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -1958,13 +1967,13 @@
         <v>38040</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -1973,13 +1982,13 @@
         <v>107429</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,13 +2003,13 @@
         <v>68846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -2009,13 +2018,13 @@
         <v>31923</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -2024,13 +2033,13 @@
         <v>100769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2095,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2098,13 +2107,13 @@
         <v>197084</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>95</v>
@@ -2113,13 +2122,13 @@
         <v>99490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>280</v>
@@ -2128,13 +2137,13 @@
         <v>296574</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2158,13 @@
         <v>108154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -2164,13 +2173,13 @@
         <v>34350</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -2179,13 +2188,13 @@
         <v>142504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2209,13 @@
         <v>84350</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2215,13 +2224,13 @@
         <v>18860</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>92</v>
@@ -2230,13 +2239,13 @@
         <v>103210</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2260,13 @@
         <v>46099</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2266,13 +2275,13 @@
         <v>17032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -2281,13 +2290,13 @@
         <v>63132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,7 +2352,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2355,13 +2364,13 @@
         <v>73903</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -2370,13 +2379,13 @@
         <v>37956</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>112</v>
@@ -2385,13 +2394,13 @@
         <v>111858</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2415,13 @@
         <v>33894</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -2421,13 +2430,13 @@
         <v>13433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -2436,13 +2445,13 @@
         <v>47327</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2466,13 @@
         <v>33007</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2472,13 +2481,13 @@
         <v>6887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -2487,13 +2496,13 @@
         <v>39894</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2517,13 @@
         <v>22564</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>5</v>
@@ -2523,13 +2532,13 @@
         <v>6008</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -2538,13 +2547,13 @@
         <v>28573</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,7 +2609,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2612,13 +2621,13 @@
         <v>1640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2627,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -2642,13 +2651,13 @@
         <v>1640</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2672,13 @@
         <v>975</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2678,13 +2687,13 @@
         <v>1743</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2693,13 +2702,13 @@
         <v>2717</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2723,13 @@
         <v>1592</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2729,13 +2738,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2744,13 +2753,13 @@
         <v>2489</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2774,13 @@
         <v>831</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2780,13 +2789,13 @@
         <v>982</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2795,13 +2804,13 @@
         <v>1812</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2878,13 @@
         <v>899124</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>534</v>
@@ -2884,13 +2893,13 @@
         <v>557802</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>1402</v>
@@ -2899,13 +2908,13 @@
         <v>1456926</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2929,13 @@
         <v>509953</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H35" s="7">
         <v>205</v>
@@ -2935,13 +2944,13 @@
         <v>210615</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M35" s="7">
         <v>694</v>
@@ -2950,13 +2959,13 @@
         <v>720568</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2980,13 @@
         <v>283055</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>119</v>
@@ -2986,13 +2995,13 @@
         <v>125077</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>386</v>
@@ -3001,13 +3010,13 @@
         <v>408132</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3031,13 @@
         <v>208939</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H37" s="7">
         <v>121</v>
@@ -3037,13 +3046,13 @@
         <v>128739</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M37" s="7">
         <v>317</v>
@@ -3052,13 +3061,13 @@
         <v>337678</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3123,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A83CCA10-CD2E-4E80-9C5E-5F022812EE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9233E09-45EC-44BE-A0B8-428F06323E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E748831D-0102-4E60-AF09-F11CCAFF5192}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FACEF04-6D1F-42B6-90D4-312136BD0865}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>49,98%</t>
   </si>
   <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
   </si>
   <si>
     <t>44,32%</t>
   </si>
   <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>47,46%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>30,69%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
   </si>
   <si>
     <t>23,63%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>8,73%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>10,6%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,106 +197,106 @@
     <t>47,1%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
   </si>
   <si>
     <t>56,44%</t>
   </si>
   <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
   </si>
   <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>24,9%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,13%</t>
+    <t>9,19%</t>
   </si>
   <si>
     <t>13,28%</t>
@@ -308,109 +308,109 @@
     <t>48,96%</t>
   </si>
   <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>54,67%</t>
   </si>
   <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -419,385 +419,388 @@
     <t>45,24%</t>
   </si>
   <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>58,62%</t>
   </si>
   <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
     <t>49,84%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>23,32%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>12,78%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1212,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE092A35-900E-4156-BEF0-59A44A858E84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6AE733-B36C-4DE4-AB2A-0E2B93ABFE20}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1641,7 +1644,7 @@
         <v>152</v>
       </c>
       <c r="D10" s="7">
-        <v>162243</v>
+        <v>162244</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1794,7 +1797,7 @@
         <v>525</v>
       </c>
       <c r="D13" s="7">
-        <v>554666</v>
+        <v>554667</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2212,10 +2215,10 @@
         <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2227,7 +2230,7 @@
         <v>85</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>147</v>
@@ -2789,13 +2792,13 @@
         <v>982</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>196</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2908,13 +2911,13 @@
         <v>1456926</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2932,13 @@
         <v>509953</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>205</v>
@@ -2944,10 +2947,10 @@
         <v>210615</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>233</v>
@@ -3064,10 +3067,10 @@
         <v>252</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3126,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6520-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6520-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9233E09-45EC-44BE-A0B8-428F06323E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5043F254-8164-4E6E-BCC8-FFFEEF38BBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2FACEF04-6D1F-42B6-90D4-312136BD0865}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EBD5FCE5-5747-4A52-BB46-6C4D2E8651B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="254">
   <si>
     <t>Población según tener que trabajar los fines de semana durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>47,1%</t>
@@ -302,7 +302,7 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>48,96%</t>
@@ -413,7 +413,7 @@
     <t>14,13%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>45,24%</t>
@@ -515,7 +515,7 @@
     <t>13,17%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>37,78%</t>
@@ -620,55 +620,43 @@
     <t>17,59%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,55%</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>48,13%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>24,76%</t>
@@ -677,25 +665,31 @@
     <t>77,17%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>27,11%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>47,3%</t>
@@ -1215,8 +1209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6AE733-B36C-4DE4-AB2A-0E2B93ABFE20}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA776FF0-55E7-4BEF-9A57-06625953DD0E}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2618,10 +2612,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>195</v>
@@ -2639,28 +2633,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1640</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2669,13 @@
         <v>975</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2690,13 +2684,13 @@
         <v>1743</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -2705,13 +2699,13 @@
         <v>2717</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,16 +2717,16 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -2741,13 +2735,13 @@
         <v>897</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -2756,13 +2750,13 @@
         <v>2489</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,19 +2765,19 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>196</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2792,28 +2786,28 @@
         <v>982</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>1812</v>
+        <v>982</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,10 +2816,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2852,10 +2846,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2869,55 +2863,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>868</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>899124</v>
+        <v>1640</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="H34" s="7">
-        <v>534</v>
-      </c>
-      <c r="I34" s="7">
-        <v>557802</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
-        <v>1402</v>
+        <v>2</v>
       </c>
       <c r="N34" s="7">
-        <v>1456926</v>
+        <v>1640</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,49 +2918,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>509953</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
-        <v>205</v>
-      </c>
-      <c r="I35" s="7">
-        <v>210615</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="M35" s="7">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>720568</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2967,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>283055</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
-        <v>119</v>
-      </c>
-      <c r="I36" s="7">
-        <v>125077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>408132</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,49 +3016,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>208939</v>
+        <v>831</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
-        <v>121</v>
-      </c>
-      <c r="I37" s="7">
-        <v>128739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="M37" s="7">
-        <v>317</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>337678</v>
+        <v>831</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>254</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,63 +3065,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>868</v>
+      </c>
+      <c r="D39" s="7">
+        <v>899124</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H39" s="7">
+        <v>534</v>
+      </c>
+      <c r="I39" s="7">
+        <v>557802</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1402</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1456926</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>489</v>
+      </c>
+      <c r="D40" s="7">
+        <v>509953</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="7">
+        <v>205</v>
+      </c>
+      <c r="I40" s="7">
+        <v>210615</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M40" s="7">
+        <v>694</v>
+      </c>
+      <c r="N40" s="7">
+        <v>720568</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>267</v>
+      </c>
+      <c r="D41" s="7">
+        <v>283055</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" s="7">
+        <v>119</v>
+      </c>
+      <c r="I41" s="7">
+        <v>125077</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M41" s="7">
+        <v>386</v>
+      </c>
+      <c r="N41" s="7">
+        <v>408132</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>196</v>
+      </c>
+      <c r="D42" s="7">
+        <v>208939</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="7">
+        <v>121</v>
+      </c>
+      <c r="I42" s="7">
+        <v>128739</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M42" s="7">
+        <v>317</v>
+      </c>
+      <c r="N42" s="7">
+        <v>337678</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1820</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1901071</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>979</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1022233</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2799</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2923304</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>255</v>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
